--- a/nyc-boroughs-finish.xlsx
+++ b/nyc-boroughs-finish.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\hf-da-resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\hf-da-resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208427FB-4992-4123-911A-95761C9EF223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F899D265-ABD9-4EEB-B680-3C23C5C2944B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{BA5BFF20-A963-496C-BF03-CA6D24BDA288}"/>
+    <workbookView xWindow="-25693" yWindow="-13" windowWidth="25786" windowHeight="13986" xr2:uid="{BA5BFF20-A963-496C-BF03-CA6D24BDA288}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>borough</t>
   </si>
@@ -527,20 +527,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56489DA-F2FA-4919-A29E-B53E5190850F}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.95"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="1" width="14.46875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.76171875" customWidth="1"/>
     <col min="3" max="3" width="8.05859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,7 +551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -562,7 +562,7 @@
         <v>42.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -573,7 +573,7 @@
         <v>69.400000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -584,7 +584,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -595,7 +595,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -604,6 +604,15 @@
       </c>
       <c r="C6">
         <v>57.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.95">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <f>SUM(B2:B6)</f>
+        <v>8804193</v>
       </c>
     </row>
   </sheetData>
@@ -615,11 +624,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F257B462-FBB3-47A9-B0AA-A2474B0AA180}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.95"/>
   <cols>
     <col min="1" max="1" width="15.46875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.234375" customWidth="1"/>
@@ -627,7 +636,7 @@
     <col min="4" max="4" width="8.9375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.95">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -642,7 +651,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.95">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -658,7 +667,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.95">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -674,7 +683,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.95">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -690,7 +699,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.95">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -706,7 +715,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.95">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -722,7 +731,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.95">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -738,14 +747,14 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.95">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.95">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -772,7 +781,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.95"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
